--- a/biology/Zoologie/Graphiurus_murinus/Graphiurus_murinus.xlsx
+++ b/biology/Zoologie/Graphiurus_murinus/Graphiurus_murinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Graphiure
 Le Graphiure (Graphiurus murinus) est une espèce de petit rongeur de la famille des Gliridae qui fait partie des loirs africains et qui est notamment élevé en tant que NAC (nouveaux animaux de compagnie).
